--- a/课程信息.xlsx
+++ b/课程信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13774\AppData\Roaming\Microsoft\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\JAVA\paike_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>课程号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +182,18 @@
   </si>
   <si>
     <t>4:6-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +575,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,7 +803,9 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -810,7 +823,9 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -828,7 +843,9 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -846,7 +863,9 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
